--- a/DATA/collate_cultivar_data_new_order/probe_screening/xy_smoothed_dfs.xlsx
+++ b/DATA/collate_cultivar_data_new_order/probe_screening/xy_smoothed_dfs.xlsx
@@ -11,14 +11,13 @@
     <sheet name="iter_1" sheetId="2" r:id="rId2"/>
     <sheet name="iter_2" sheetId="3" r:id="rId3"/>
     <sheet name="iter_3" sheetId="4" r:id="rId4"/>
-    <sheet name="iter_4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>x_smoothed</t>
   </si>
@@ -16580,4054 +16579,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C367"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0.1106765</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0.1107156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0.110755</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0.1107946</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>0.1108342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>0.1108737</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>0.1109132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>0.1109524</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>0.1109913</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>0.1110298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>0.1110678</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>0.1111051</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>0.1111417</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>0.1111775</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>0.1112124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>0.1112463</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>0.111279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>0.1113106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>18</v>
-      </c>
-      <c r="C20">
-        <v>0.1113409</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>19</v>
-      </c>
-      <c r="C21">
-        <v>0.1113698</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>20</v>
-      </c>
-      <c r="C22">
-        <v>0.1113973</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>21</v>
-      </c>
-      <c r="C23">
-        <v>0.1114233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <v>0.1114477</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>23</v>
-      </c>
-      <c r="C25">
-        <v>0.1114706</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>24</v>
-      </c>
-      <c r="C26">
-        <v>0.1114918</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>25</v>
-      </c>
-      <c r="C27">
-        <v>0.1115113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>26</v>
-      </c>
-      <c r="C28">
-        <v>0.1115291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>27</v>
-      </c>
-      <c r="C29">
-        <v>0.1115452</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>28</v>
-      </c>
-      <c r="C30">
-        <v>0.1115597</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>29</v>
-      </c>
-      <c r="C31">
-        <v>0.1115725</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>30</v>
-      </c>
-      <c r="C32">
-        <v>0.1115837</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>31</v>
-      </c>
-      <c r="C33">
-        <v>0.1115933</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>32</v>
-      </c>
-      <c r="C34">
-        <v>0.1116015</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>33</v>
-      </c>
-      <c r="C35">
-        <v>0.1116083</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>34</v>
-      </c>
-      <c r="C36">
-        <v>0.1116139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>35</v>
-      </c>
-      <c r="C37">
-        <v>0.1116184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>36</v>
-      </c>
-      <c r="C38">
-        <v>0.111622</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>37</v>
-      </c>
-      <c r="C39">
-        <v>0.1116249</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>38</v>
-      </c>
-      <c r="C40">
-        <v>0.1116272</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>39</v>
-      </c>
-      <c r="C41">
-        <v>0.1116294</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>40</v>
-      </c>
-      <c r="C42">
-        <v>0.1116316</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>41</v>
-      </c>
-      <c r="C43">
-        <v>0.1116342</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>42</v>
-      </c>
-      <c r="C44">
-        <v>0.1116374</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>43</v>
-      </c>
-      <c r="C45">
-        <v>0.1116418</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>44</v>
-      </c>
-      <c r="C46">
-        <v>0.1116477</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>45</v>
-      </c>
-      <c r="C47">
-        <v>0.1116555</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>46</v>
-      </c>
-      <c r="C48">
-        <v>0.1116657</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>47</v>
-      </c>
-      <c r="C49">
-        <v>0.1116788</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>48</v>
-      </c>
-      <c r="C50">
-        <v>0.1116955</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>49</v>
-      </c>
-      <c r="C51">
-        <v>0.1117162</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>50</v>
-      </c>
-      <c r="C52">
-        <v>0.1117416</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>51</v>
-      </c>
-      <c r="C53">
-        <v>0.1117724</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>52</v>
-      </c>
-      <c r="C54">
-        <v>0.1118092</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>53</v>
-      </c>
-      <c r="C55">
-        <v>0.1118527</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>54</v>
-      </c>
-      <c r="C56">
-        <v>0.1119038</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>55</v>
-      </c>
-      <c r="C57">
-        <v>0.1119632</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>56</v>
-      </c>
-      <c r="C58">
-        <v>0.1120317</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>57</v>
-      </c>
-      <c r="C59">
-        <v>0.1121103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>58</v>
-      </c>
-      <c r="C60">
-        <v>0.1121998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>59</v>
-      </c>
-      <c r="C61">
-        <v>0.1123011</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>60</v>
-      </c>
-      <c r="C62">
-        <v>0.1124153</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>61</v>
-      </c>
-      <c r="C63">
-        <v>0.1125433</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>62</v>
-      </c>
-      <c r="C64">
-        <v>0.1126861</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>63</v>
-      </c>
-      <c r="C65">
-        <v>0.1128448</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>64</v>
-      </c>
-      <c r="C66">
-        <v>0.1130206</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>65</v>
-      </c>
-      <c r="C67">
-        <v>0.1132144</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>66</v>
-      </c>
-      <c r="C68">
-        <v>0.1134274</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>67</v>
-      </c>
-      <c r="C69">
-        <v>0.1136609</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>68</v>
-      </c>
-      <c r="C70">
-        <v>0.113916</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>69</v>
-      </c>
-      <c r="C71">
-        <v>0.114194</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>70</v>
-      </c>
-      <c r="C72">
-        <v>0.114496</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>71</v>
-      </c>
-      <c r="C73">
-        <v>0.1148234</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>72</v>
-      </c>
-      <c r="C74">
-        <v>0.1151775</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>73</v>
-      </c>
-      <c r="C75">
-        <v>0.1155595</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>74</v>
-      </c>
-      <c r="C76">
-        <v>0.1159709</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>75</v>
-      </c>
-      <c r="C77">
-        <v>0.116413</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>76</v>
-      </c>
-      <c r="C78">
-        <v>0.1168873</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>77</v>
-      </c>
-      <c r="C79">
-        <v>0.117395</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>78</v>
-      </c>
-      <c r="C80">
-        <v>0.1179377</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>79</v>
-      </c>
-      <c r="C81">
-        <v>0.1185169</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>80</v>
-      </c>
-      <c r="C82">
-        <v>0.1191339</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>81</v>
-      </c>
-      <c r="C83">
-        <v>0.1197904</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>82</v>
-      </c>
-      <c r="C84">
-        <v>0.1204879</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>83</v>
-      </c>
-      <c r="C85">
-        <v>0.1212279</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>84</v>
-      </c>
-      <c r="C86">
-        <v>0.122012</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>85</v>
-      </c>
-      <c r="C87">
-        <v>0.1228418</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>86</v>
-      </c>
-      <c r="C88">
-        <v>0.1237189</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>87</v>
-      </c>
-      <c r="C89">
-        <v>0.124645</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>88</v>
-      </c>
-      <c r="C90">
-        <v>0.1256217</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>89</v>
-      </c>
-      <c r="C91">
-        <v>0.1266508</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>90</v>
-      </c>
-      <c r="C92">
-        <v>0.1277337</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>91</v>
-      </c>
-      <c r="C93">
-        <v>0.1288724</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>92</v>
-      </c>
-      <c r="C94">
-        <v>0.1300685</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>93</v>
-      </c>
-      <c r="C95">
-        <v>0.1313237</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>94</v>
-      </c>
-      <c r="C96">
-        <v>0.1326398</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>95</v>
-      </c>
-      <c r="C97">
-        <v>0.1340184</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>96</v>
-      </c>
-      <c r="C98">
-        <v>0.1354613</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>97</v>
-      </c>
-      <c r="C99">
-        <v>0.1369702</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>98</v>
-      </c>
-      <c r="C100">
-        <v>0.1385468</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>99</v>
-      </c>
-      <c r="C101">
-        <v>0.1401927</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>100</v>
-      </c>
-      <c r="C102">
-        <v>0.1419097</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>101</v>
-      </c>
-      <c r="C103">
-        <v>0.1436993</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>102</v>
-      </c>
-      <c r="C104">
-        <v>0.1455631</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105">
-        <v>103</v>
-      </c>
-      <c r="C105">
-        <v>0.1475025</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106">
-        <v>104</v>
-      </c>
-      <c r="C106">
-        <v>0.1495191</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>105</v>
-      </c>
-      <c r="C107">
-        <v>0.1516142</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>106</v>
-      </c>
-      <c r="C108">
-        <v>0.1537891</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <v>107</v>
-      </c>
-      <c r="C109">
-        <v>0.156045</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110">
-        <v>108</v>
-      </c>
-      <c r="C110">
-        <v>0.158383</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111">
-        <v>109</v>
-      </c>
-      <c r="C111">
-        <v>0.160804</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>110</v>
-      </c>
-      <c r="C112">
-        <v>0.1633089</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113">
-        <v>111</v>
-      </c>
-      <c r="C113">
-        <v>0.1658983</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114">
-        <v>112</v>
-      </c>
-      <c r="C114">
-        <v>0.1685728</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115">
-        <v>113</v>
-      </c>
-      <c r="C115">
-        <v>0.1713326</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116">
-        <v>114</v>
-      </c>
-      <c r="C116">
-        <v>0.174178</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117">
-        <v>115</v>
-      </c>
-      <c r="C117">
-        <v>0.1771089</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118">
-        <v>116</v>
-      </c>
-      <c r="C118">
-        <v>0.180125</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119">
-        <v>117</v>
-      </c>
-      <c r="C119">
-        <v>0.1832259</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120">
-        <v>118</v>
-      </c>
-      <c r="C120">
-        <v>0.1864107</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121">
-        <v>119</v>
-      </c>
-      <c r="C121">
-        <v>0.1896785</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122">
-        <v>120</v>
-      </c>
-      <c r="C122">
-        <v>0.1930281</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123">
-        <v>121</v>
-      </c>
-      <c r="C123">
-        <v>0.1964579</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124">
-        <v>122</v>
-      </c>
-      <c r="C124">
-        <v>0.1999661</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125">
-        <v>123</v>
-      </c>
-      <c r="C125">
-        <v>0.2035507</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126">
-        <v>124</v>
-      </c>
-      <c r="C126">
-        <v>0.2072092</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127">
-        <v>125</v>
-      </c>
-      <c r="C127">
-        <v>0.2109391</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128">
-        <v>126</v>
-      </c>
-      <c r="C128">
-        <v>0.2147374</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129">
-        <v>127</v>
-      </c>
-      <c r="C129">
-        <v>0.2186009</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130">
-        <v>128</v>
-      </c>
-      <c r="C130">
-        <v>0.2225261</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131">
-        <v>129</v>
-      </c>
-      <c r="C131">
-        <v>0.2265093</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132">
-        <v>130</v>
-      </c>
-      <c r="C132">
-        <v>0.2305465</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133">
-        <v>131</v>
-      </c>
-      <c r="C133">
-        <v>0.2346335</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134">
-        <v>132</v>
-      </c>
-      <c r="C134">
-        <v>0.2387658</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135">
-        <v>133</v>
-      </c>
-      <c r="C135">
-        <v>0.2429388</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136">
-        <v>134</v>
-      </c>
-      <c r="C136">
-        <v>0.2471477</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137">
-        <v>135</v>
-      </c>
-      <c r="C137">
-        <v>0.2513875</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138">
-        <v>136</v>
-      </c>
-      <c r="C138">
-        <v>0.2556532</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139">
-        <v>137</v>
-      </c>
-      <c r="C139">
-        <v>0.2599395</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140">
-        <v>138</v>
-      </c>
-      <c r="C140">
-        <v>0.2642413</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141">
-        <v>139</v>
-      </c>
-      <c r="C141">
-        <v>0.2685532</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142">
-        <v>140</v>
-      </c>
-      <c r="C142">
-        <v>0.2728699</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143">
-        <v>141</v>
-      </c>
-      <c r="C143">
-        <v>0.2771861</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144">
-        <v>142</v>
-      </c>
-      <c r="C144">
-        <v>0.2814967</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145">
-        <v>143</v>
-      </c>
-      <c r="C145">
-        <v>0.2857965</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="B146">
-        <v>144</v>
-      </c>
-      <c r="C146">
-        <v>0.2900804</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147">
-        <v>145</v>
-      </c>
-      <c r="C147">
-        <v>0.2943435</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148">
-        <v>146</v>
-      </c>
-      <c r="C148">
-        <v>0.2985811</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149">
-        <v>147</v>
-      </c>
-      <c r="C149">
-        <v>0.3027886</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150">
-        <v>148</v>
-      </c>
-      <c r="C150">
-        <v>0.3069616</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151">
-        <v>149</v>
-      </c>
-      <c r="C151">
-        <v>0.311096</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>150</v>
-      </c>
-      <c r="C152">
-        <v>0.3151878</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153">
-        <v>151</v>
-      </c>
-      <c r="C153">
-        <v>0.3192334</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154">
-        <v>152</v>
-      </c>
-      <c r="C154">
-        <v>0.3232293</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155">
-        <v>153</v>
-      </c>
-      <c r="C155">
-        <v>0.3271723</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156">
-        <v>154</v>
-      </c>
-      <c r="C156">
-        <v>0.3310596</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157">
-        <v>155</v>
-      </c>
-      <c r="C157">
-        <v>0.3348884</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158">
-        <v>156</v>
-      </c>
-      <c r="C158">
-        <v>0.3386564</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159">
-        <v>157</v>
-      </c>
-      <c r="C159">
-        <v>0.3423615</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160">
-        <v>158</v>
-      </c>
-      <c r="C160">
-        <v>0.3460019</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161">
-        <v>159</v>
-      </c>
-      <c r="C161">
-        <v>0.3495758</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162">
-        <v>160</v>
-      </c>
-      <c r="C162">
-        <v>0.3530819</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163">
-        <v>161</v>
-      </c>
-      <c r="C163">
-        <v>0.356519</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164">
-        <v>162</v>
-      </c>
-      <c r="C164">
-        <v>0.3598863</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165">
-        <v>163</v>
-      </c>
-      <c r="C165">
-        <v>0.363183</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166">
-        <v>164</v>
-      </c>
-      <c r="C166">
-        <v>0.3664086</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167">
-        <v>165</v>
-      </c>
-      <c r="C167">
-        <v>0.3695627</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168">
-        <v>166</v>
-      </c>
-      <c r="C168">
-        <v>0.3726452</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169">
-        <v>167</v>
-      </c>
-      <c r="C169">
-        <v>0.375656</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170">
-        <v>168</v>
-      </c>
-      <c r="C170">
-        <v>0.3785953</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171">
-        <v>169</v>
-      </c>
-      <c r="C171">
-        <v>0.3814633</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172">
-        <v>170</v>
-      </c>
-      <c r="C172">
-        <v>0.3842603</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173">
-        <v>171</v>
-      </c>
-      <c r="C173">
-        <v>0.3869869</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174">
-        <v>172</v>
-      </c>
-      <c r="C174">
-        <v>0.3896435</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175">
-        <v>173</v>
-      </c>
-      <c r="C175">
-        <v>0.3922309</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176">
-        <v>174</v>
-      </c>
-      <c r="C176">
-        <v>0.3947497</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177">
-        <v>175</v>
-      </c>
-      <c r="C177">
-        <v>0.3972007</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178">
-        <v>176</v>
-      </c>
-      <c r="C178">
-        <v>0.3995846</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179">
-        <v>177</v>
-      </c>
-      <c r="C179">
-        <v>0.4019024</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
-      <c r="B180">
-        <v>178</v>
-      </c>
-      <c r="C180">
-        <v>0.4041549</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="1">
-        <v>179</v>
-      </c>
-      <c r="B181">
-        <v>179</v>
-      </c>
-      <c r="C181">
-        <v>0.4063429</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="1">
-        <v>180</v>
-      </c>
-      <c r="B182">
-        <v>180</v>
-      </c>
-      <c r="C182">
-        <v>0.4084675</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="1">
-        <v>181</v>
-      </c>
-      <c r="B183">
-        <v>181</v>
-      </c>
-      <c r="C183">
-        <v>0.4105295</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
-      <c r="B184">
-        <v>182</v>
-      </c>
-      <c r="C184">
-        <v>0.4125298</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="1">
-        <v>183</v>
-      </c>
-      <c r="B185">
-        <v>183</v>
-      </c>
-      <c r="C185">
-        <v>0.4144694</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
-      <c r="B186">
-        <v>184</v>
-      </c>
-      <c r="C186">
-        <v>0.4163491</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
-      <c r="B187">
-        <v>185</v>
-      </c>
-      <c r="C187">
-        <v>0.4181699</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="1">
-        <v>186</v>
-      </c>
-      <c r="B188">
-        <v>186</v>
-      </c>
-      <c r="C188">
-        <v>0.4199327</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-      <c r="B189">
-        <v>187</v>
-      </c>
-      <c r="C189">
-        <v>0.4216383</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
-      <c r="B190">
-        <v>188</v>
-      </c>
-      <c r="C190">
-        <v>0.4232875</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="1">
-        <v>189</v>
-      </c>
-      <c r="B191">
-        <v>189</v>
-      </c>
-      <c r="C191">
-        <v>0.4248812</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="1">
-        <v>190</v>
-      </c>
-      <c r="B192">
-        <v>190</v>
-      </c>
-      <c r="C192">
-        <v>0.4264201</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="1">
-        <v>191</v>
-      </c>
-      <c r="B193">
-        <v>191</v>
-      </c>
-      <c r="C193">
-        <v>0.4279051</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="1">
-        <v>192</v>
-      </c>
-      <c r="B194">
-        <v>192</v>
-      </c>
-      <c r="C194">
-        <v>0.4293368</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="1">
-        <v>193</v>
-      </c>
-      <c r="B195">
-        <v>193</v>
-      </c>
-      <c r="C195">
-        <v>0.430716</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="1">
-        <v>194</v>
-      </c>
-      <c r="B196">
-        <v>194</v>
-      </c>
-      <c r="C196">
-        <v>0.4320433</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="1">
-        <v>195</v>
-      </c>
-      <c r="B197">
-        <v>195</v>
-      </c>
-      <c r="C197">
-        <v>0.4333192</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="1">
-        <v>196</v>
-      </c>
-      <c r="B198">
-        <v>196</v>
-      </c>
-      <c r="C198">
-        <v>0.4345445</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="1">
-        <v>197</v>
-      </c>
-      <c r="B199">
-        <v>197</v>
-      </c>
-      <c r="C199">
-        <v>0.4357197</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="1">
-        <v>198</v>
-      </c>
-      <c r="B200">
-        <v>198</v>
-      </c>
-      <c r="C200">
-        <v>0.4368453</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="1">
-        <v>199</v>
-      </c>
-      <c r="B201">
-        <v>199</v>
-      </c>
-      <c r="C201">
-        <v>0.4379217</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="1">
-        <v>200</v>
-      </c>
-      <c r="B202">
-        <v>200</v>
-      </c>
-      <c r="C202">
-        <v>0.4389494</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="1">
-        <v>201</v>
-      </c>
-      <c r="B203">
-        <v>201</v>
-      </c>
-      <c r="C203">
-        <v>0.4399289</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
-      <c r="B204">
-        <v>202</v>
-      </c>
-      <c r="C204">
-        <v>0.4408604</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
-      <c r="B205">
-        <v>203</v>
-      </c>
-      <c r="C205">
-        <v>0.4417443</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="1">
-        <v>204</v>
-      </c>
-      <c r="B206">
-        <v>204</v>
-      </c>
-      <c r="C206">
-        <v>0.4425808</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
-      <c r="B207">
-        <v>205</v>
-      </c>
-      <c r="C207">
-        <v>0.4433703</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="1">
-        <v>206</v>
-      </c>
-      <c r="B208">
-        <v>206</v>
-      </c>
-      <c r="C208">
-        <v>0.444113</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="1">
-        <v>207</v>
-      </c>
-      <c r="B209">
-        <v>207</v>
-      </c>
-      <c r="C209">
-        <v>0.444809</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="1">
-        <v>208</v>
-      </c>
-      <c r="B210">
-        <v>208</v>
-      </c>
-      <c r="C210">
-        <v>0.4454584</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="1">
-        <v>209</v>
-      </c>
-      <c r="B211">
-        <v>209</v>
-      </c>
-      <c r="C211">
-        <v>0.4460614</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="1">
-        <v>210</v>
-      </c>
-      <c r="B212">
-        <v>210</v>
-      </c>
-      <c r="C212">
-        <v>0.446618</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="1">
-        <v>211</v>
-      </c>
-      <c r="B213">
-        <v>211</v>
-      </c>
-      <c r="C213">
-        <v>0.4471283</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
-      <c r="B214">
-        <v>212</v>
-      </c>
-      <c r="C214">
-        <v>0.4475923</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215">
-        <v>213</v>
-      </c>
-      <c r="C215">
-        <v>0.4480099</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="1">
-        <v>214</v>
-      </c>
-      <c r="B216">
-        <v>214</v>
-      </c>
-      <c r="C216">
-        <v>0.448381</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="1">
-        <v>215</v>
-      </c>
-      <c r="B217">
-        <v>215</v>
-      </c>
-      <c r="C217">
-        <v>0.4487057</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="1">
-        <v>216</v>
-      </c>
-      <c r="B218">
-        <v>216</v>
-      </c>
-      <c r="C218">
-        <v>0.4489838</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="1">
-        <v>217</v>
-      </c>
-      <c r="B219">
-        <v>217</v>
-      </c>
-      <c r="C219">
-        <v>0.449215</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="B220">
-        <v>218</v>
-      </c>
-      <c r="C220">
-        <v>0.4493994</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221">
-        <v>219</v>
-      </c>
-      <c r="C221">
-        <v>0.4495366</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="1">
-        <v>220</v>
-      </c>
-      <c r="B222">
-        <v>220</v>
-      </c>
-      <c r="C222">
-        <v>0.4496265</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="1">
-        <v>221</v>
-      </c>
-      <c r="B223">
-        <v>221</v>
-      </c>
-      <c r="C223">
-        <v>0.4496688</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="1">
-        <v>222</v>
-      </c>
-      <c r="B224">
-        <v>222</v>
-      </c>
-      <c r="C224">
-        <v>0.4496633</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="1">
-        <v>223</v>
-      </c>
-      <c r="B225">
-        <v>223</v>
-      </c>
-      <c r="C225">
-        <v>0.4496097</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="1">
-        <v>224</v>
-      </c>
-      <c r="B226">
-        <v>224</v>
-      </c>
-      <c r="C226">
-        <v>0.4495077</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="1">
-        <v>225</v>
-      </c>
-      <c r="B227">
-        <v>225</v>
-      </c>
-      <c r="C227">
-        <v>0.4493571</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="1">
-        <v>226</v>
-      </c>
-      <c r="B228">
-        <v>226</v>
-      </c>
-      <c r="C228">
-        <v>0.4491575</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="1">
-        <v>227</v>
-      </c>
-      <c r="B229">
-        <v>227</v>
-      </c>
-      <c r="C229">
-        <v>0.4489086</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="1">
-        <v>228</v>
-      </c>
-      <c r="B230">
-        <v>228</v>
-      </c>
-      <c r="C230">
-        <v>0.4486102</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="1">
-        <v>229</v>
-      </c>
-      <c r="B231">
-        <v>229</v>
-      </c>
-      <c r="C231">
-        <v>0.4482618</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="1">
-        <v>230</v>
-      </c>
-      <c r="B232">
-        <v>230</v>
-      </c>
-      <c r="C232">
-        <v>0.4478632</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="1">
-        <v>231</v>
-      </c>
-      <c r="B233">
-        <v>231</v>
-      </c>
-      <c r="C233">
-        <v>0.4474141</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="1">
-        <v>232</v>
-      </c>
-      <c r="B234">
-        <v>232</v>
-      </c>
-      <c r="C234">
-        <v>0.4469141</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="1">
-        <v>233</v>
-      </c>
-      <c r="B235">
-        <v>233</v>
-      </c>
-      <c r="C235">
-        <v>0.446363</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="1">
-        <v>234</v>
-      </c>
-      <c r="B236">
-        <v>234</v>
-      </c>
-      <c r="C236">
-        <v>0.4457604</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="1">
-        <v>235</v>
-      </c>
-      <c r="B237">
-        <v>235</v>
-      </c>
-      <c r="C237">
-        <v>0.4451059</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" s="1">
-        <v>236</v>
-      </c>
-      <c r="B238">
-        <v>236</v>
-      </c>
-      <c r="C238">
-        <v>0.4443994</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="1">
-        <v>237</v>
-      </c>
-      <c r="B239">
-        <v>237</v>
-      </c>
-      <c r="C239">
-        <v>0.4436405</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="B240">
-        <v>238</v>
-      </c>
-      <c r="C240">
-        <v>0.442829</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="B241">
-        <v>239</v>
-      </c>
-      <c r="C241">
-        <v>0.4419646</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242">
-        <v>240</v>
-      </c>
-      <c r="C242">
-        <v>0.4410469</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243">
-        <v>241</v>
-      </c>
-      <c r="C243">
-        <v>0.4400759</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244">
-        <v>242</v>
-      </c>
-      <c r="C244">
-        <v>0.4390512</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245" s="1">
-        <v>243</v>
-      </c>
-      <c r="B245">
-        <v>243</v>
-      </c>
-      <c r="C245">
-        <v>0.4379727</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246" s="1">
-        <v>244</v>
-      </c>
-      <c r="B246">
-        <v>244</v>
-      </c>
-      <c r="C246">
-        <v>0.43684</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" s="1">
-        <v>245</v>
-      </c>
-      <c r="B247">
-        <v>245</v>
-      </c>
-      <c r="C247">
-        <v>0.4356531</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="A248" s="1">
-        <v>246</v>
-      </c>
-      <c r="B248">
-        <v>246</v>
-      </c>
-      <c r="C248">
-        <v>0.4344117</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
-      <c r="B249">
-        <v>247</v>
-      </c>
-      <c r="C249">
-        <v>0.4331157</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250">
-        <v>248</v>
-      </c>
-      <c r="C250">
-        <v>0.4317648</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="B251">
-        <v>249</v>
-      </c>
-      <c r="C251">
-        <v>0.4303588</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252">
-        <v>250</v>
-      </c>
-      <c r="C252">
-        <v>0.4288977</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="B253">
-        <v>251</v>
-      </c>
-      <c r="C253">
-        <v>0.4273811</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
-      <c r="A254" s="1">
-        <v>252</v>
-      </c>
-      <c r="B254">
-        <v>252</v>
-      </c>
-      <c r="C254">
-        <v>0.4258089</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
-      <c r="A255" s="1">
-        <v>253</v>
-      </c>
-      <c r="B255">
-        <v>253</v>
-      </c>
-      <c r="C255">
-        <v>0.424181</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
-      <c r="A256" s="1">
-        <v>254</v>
-      </c>
-      <c r="B256">
-        <v>254</v>
-      </c>
-      <c r="C256">
-        <v>0.4224971</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="B257">
-        <v>255</v>
-      </c>
-      <c r="C257">
-        <v>0.4207569</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="A258" s="1">
-        <v>256</v>
-      </c>
-      <c r="B258">
-        <v>256</v>
-      </c>
-      <c r="C258">
-        <v>0.4189603</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259" s="1">
-        <v>257</v>
-      </c>
-      <c r="B259">
-        <v>257</v>
-      </c>
-      <c r="C259">
-        <v>0.4171069</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" s="1">
-        <v>258</v>
-      </c>
-      <c r="B260">
-        <v>258</v>
-      </c>
-      <c r="C260">
-        <v>0.4151965</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="A261" s="1">
-        <v>259</v>
-      </c>
-      <c r="B261">
-        <v>259</v>
-      </c>
-      <c r="C261">
-        <v>0.4132287</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262" s="1">
-        <v>260</v>
-      </c>
-      <c r="B262">
-        <v>260</v>
-      </c>
-      <c r="C262">
-        <v>0.4112032</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" s="1">
-        <v>261</v>
-      </c>
-      <c r="B263">
-        <v>261</v>
-      </c>
-      <c r="C263">
-        <v>0.4091195</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" s="1">
-        <v>262</v>
-      </c>
-      <c r="B264">
-        <v>262</v>
-      </c>
-      <c r="C264">
-        <v>0.4069772</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="A265" s="1">
-        <v>263</v>
-      </c>
-      <c r="B265">
-        <v>263</v>
-      </c>
-      <c r="C265">
-        <v>0.4047759</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266" s="1">
-        <v>264</v>
-      </c>
-      <c r="B266">
-        <v>264</v>
-      </c>
-      <c r="C266">
-        <v>0.402515</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="A267" s="1">
-        <v>265</v>
-      </c>
-      <c r="B267">
-        <v>265</v>
-      </c>
-      <c r="C267">
-        <v>0.4001938</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268" s="1">
-        <v>266</v>
-      </c>
-      <c r="B268">
-        <v>266</v>
-      </c>
-      <c r="C268">
-        <v>0.3978117</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" s="1">
-        <v>267</v>
-      </c>
-      <c r="B269">
-        <v>267</v>
-      </c>
-      <c r="C269">
-        <v>0.3953681</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270" s="1">
-        <v>268</v>
-      </c>
-      <c r="B270">
-        <v>268</v>
-      </c>
-      <c r="C270">
-        <v>0.3928621</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="A271" s="1">
-        <v>269</v>
-      </c>
-      <c r="B271">
-        <v>269</v>
-      </c>
-      <c r="C271">
-        <v>0.3902928</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="A272" s="1">
-        <v>270</v>
-      </c>
-      <c r="B272">
-        <v>270</v>
-      </c>
-      <c r="C272">
-        <v>0.3876596</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="A273" s="1">
-        <v>271</v>
-      </c>
-      <c r="B273">
-        <v>271</v>
-      </c>
-      <c r="C273">
-        <v>0.3849612</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
-      <c r="A274" s="1">
-        <v>272</v>
-      </c>
-      <c r="B274">
-        <v>272</v>
-      </c>
-      <c r="C274">
-        <v>0.3821969</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275" s="1">
-        <v>273</v>
-      </c>
-      <c r="B275">
-        <v>273</v>
-      </c>
-      <c r="C275">
-        <v>0.3793654</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
-      <c r="A276" s="1">
-        <v>274</v>
-      </c>
-      <c r="B276">
-        <v>274</v>
-      </c>
-      <c r="C276">
-        <v>0.3764657</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
-      <c r="A277" s="1">
-        <v>275</v>
-      </c>
-      <c r="B277">
-        <v>275</v>
-      </c>
-      <c r="C277">
-        <v>0.3734966</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
-      <c r="A278" s="1">
-        <v>276</v>
-      </c>
-      <c r="B278">
-        <v>276</v>
-      </c>
-      <c r="C278">
-        <v>0.370457</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
-      <c r="A279" s="1">
-        <v>277</v>
-      </c>
-      <c r="B279">
-        <v>277</v>
-      </c>
-      <c r="C279">
-        <v>0.3673456</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
-      <c r="A280" s="1">
-        <v>278</v>
-      </c>
-      <c r="B280">
-        <v>278</v>
-      </c>
-      <c r="C280">
-        <v>0.3641612</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
-      <c r="A281" s="1">
-        <v>279</v>
-      </c>
-      <c r="B281">
-        <v>279</v>
-      </c>
-      <c r="C281">
-        <v>0.3609026</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
-      <c r="A282" s="1">
-        <v>280</v>
-      </c>
-      <c r="B282">
-        <v>280</v>
-      </c>
-      <c r="C282">
-        <v>0.3575685</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
-      <c r="A283" s="1">
-        <v>281</v>
-      </c>
-      <c r="B283">
-        <v>281</v>
-      </c>
-      <c r="C283">
-        <v>0.3541577</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
-      <c r="A284" s="1">
-        <v>282</v>
-      </c>
-      <c r="B284">
-        <v>282</v>
-      </c>
-      <c r="C284">
-        <v>0.3506692</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
-      <c r="A285" s="1">
-        <v>283</v>
-      </c>
-      <c r="B285">
-        <v>283</v>
-      </c>
-      <c r="C285">
-        <v>0.3471018</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
-      <c r="A286" s="1">
-        <v>284</v>
-      </c>
-      <c r="B286">
-        <v>284</v>
-      </c>
-      <c r="C286">
-        <v>0.3434547</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
-      <c r="A287" s="1">
-        <v>285</v>
-      </c>
-      <c r="B287">
-        <v>285</v>
-      </c>
-      <c r="C287">
-        <v>0.3397268</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
-      <c r="A288" s="1">
-        <v>286</v>
-      </c>
-      <c r="B288">
-        <v>286</v>
-      </c>
-      <c r="C288">
-        <v>0.3359176</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
-      <c r="A289" s="1">
-        <v>287</v>
-      </c>
-      <c r="B289">
-        <v>287</v>
-      </c>
-      <c r="C289">
-        <v>0.3320266</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
-      <c r="A290" s="1">
-        <v>288</v>
-      </c>
-      <c r="B290">
-        <v>288</v>
-      </c>
-      <c r="C290">
-        <v>0.3280533</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
-      <c r="A291" s="1">
-        <v>289</v>
-      </c>
-      <c r="B291">
-        <v>289</v>
-      </c>
-      <c r="C291">
-        <v>0.3239978</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
-      <c r="A292" s="1">
-        <v>290</v>
-      </c>
-      <c r="B292">
-        <v>290</v>
-      </c>
-      <c r="C292">
-        <v>0.3198603</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
-      <c r="A293" s="1">
-        <v>291</v>
-      </c>
-      <c r="B293">
-        <v>291</v>
-      </c>
-      <c r="C293">
-        <v>0.3156414</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
-      <c r="A294" s="1">
-        <v>292</v>
-      </c>
-      <c r="B294">
-        <v>292</v>
-      </c>
-      <c r="C294">
-        <v>0.3113419</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
-      <c r="A295" s="1">
-        <v>293</v>
-      </c>
-      <c r="B295">
-        <v>293</v>
-      </c>
-      <c r="C295">
-        <v>0.3069632</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
-      <c r="A296" s="1">
-        <v>294</v>
-      </c>
-      <c r="B296">
-        <v>294</v>
-      </c>
-      <c r="C296">
-        <v>0.3025069</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
-      <c r="A297" s="1">
-        <v>295</v>
-      </c>
-      <c r="B297">
-        <v>295</v>
-      </c>
-      <c r="C297">
-        <v>0.2979752</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3">
-      <c r="A298" s="1">
-        <v>296</v>
-      </c>
-      <c r="B298">
-        <v>296</v>
-      </c>
-      <c r="C298">
-        <v>0.2933708</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3">
-      <c r="A299" s="1">
-        <v>297</v>
-      </c>
-      <c r="B299">
-        <v>297</v>
-      </c>
-      <c r="C299">
-        <v>0.2886969</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3">
-      <c r="A300" s="1">
-        <v>298</v>
-      </c>
-      <c r="B300">
-        <v>298</v>
-      </c>
-      <c r="C300">
-        <v>0.2839571</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3">
-      <c r="A301" s="1">
-        <v>299</v>
-      </c>
-      <c r="B301">
-        <v>299</v>
-      </c>
-      <c r="C301">
-        <v>0.2791558</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3">
-      <c r="A302" s="1">
-        <v>300</v>
-      </c>
-      <c r="B302">
-        <v>300</v>
-      </c>
-      <c r="C302">
-        <v>0.2742976</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3">
-      <c r="A303" s="1">
-        <v>301</v>
-      </c>
-      <c r="B303">
-        <v>301</v>
-      </c>
-      <c r="C303">
-        <v>0.269388</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3">
-      <c r="A304" s="1">
-        <v>302</v>
-      </c>
-      <c r="B304">
-        <v>302</v>
-      </c>
-      <c r="C304">
-        <v>0.264433</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3">
-      <c r="A305" s="1">
-        <v>303</v>
-      </c>
-      <c r="B305">
-        <v>303</v>
-      </c>
-      <c r="C305">
-        <v>0.259439</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3">
-      <c r="A306" s="1">
-        <v>304</v>
-      </c>
-      <c r="B306">
-        <v>304</v>
-      </c>
-      <c r="C306">
-        <v>0.2544131</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3">
-      <c r="A307" s="1">
-        <v>305</v>
-      </c>
-      <c r="B307">
-        <v>305</v>
-      </c>
-      <c r="C307">
-        <v>0.2493626</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3">
-      <c r="A308" s="1">
-        <v>306</v>
-      </c>
-      <c r="B308">
-        <v>306</v>
-      </c>
-      <c r="C308">
-        <v>0.2442956</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3">
-      <c r="A309" s="1">
-        <v>307</v>
-      </c>
-      <c r="B309">
-        <v>307</v>
-      </c>
-      <c r="C309">
-        <v>0.2392205</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3">
-      <c r="A310" s="1">
-        <v>308</v>
-      </c>
-      <c r="B310">
-        <v>308</v>
-      </c>
-      <c r="C310">
-        <v>0.2341458</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3">
-      <c r="A311" s="1">
-        <v>309</v>
-      </c>
-      <c r="B311">
-        <v>309</v>
-      </c>
-      <c r="C311">
-        <v>0.2290806</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3">
-      <c r="A312" s="1">
-        <v>310</v>
-      </c>
-      <c r="B312">
-        <v>310</v>
-      </c>
-      <c r="C312">
-        <v>0.224034</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3">
-      <c r="A313" s="1">
-        <v>311</v>
-      </c>
-      <c r="B313">
-        <v>311</v>
-      </c>
-      <c r="C313">
-        <v>0.2190153</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
-      <c r="A314" s="1">
-        <v>312</v>
-      </c>
-      <c r="B314">
-        <v>312</v>
-      </c>
-      <c r="C314">
-        <v>0.2140339</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3">
-      <c r="A315" s="1">
-        <v>313</v>
-      </c>
-      <c r="B315">
-        <v>313</v>
-      </c>
-      <c r="C315">
-        <v>0.209099</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3">
-      <c r="A316" s="1">
-        <v>314</v>
-      </c>
-      <c r="B316">
-        <v>314</v>
-      </c>
-      <c r="C316">
-        <v>0.2042197</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3">
-      <c r="A317" s="1">
-        <v>315</v>
-      </c>
-      <c r="B317">
-        <v>315</v>
-      </c>
-      <c r="C317">
-        <v>0.1994051</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3">
-      <c r="A318" s="1">
-        <v>316</v>
-      </c>
-      <c r="B318">
-        <v>316</v>
-      </c>
-      <c r="C318">
-        <v>0.1946636</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3">
-      <c r="A319" s="1">
-        <v>317</v>
-      </c>
-      <c r="B319">
-        <v>317</v>
-      </c>
-      <c r="C319">
-        <v>0.1900036</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3">
-      <c r="A320" s="1">
-        <v>318</v>
-      </c>
-      <c r="B320">
-        <v>318</v>
-      </c>
-      <c r="C320">
-        <v>0.1854329</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3">
-      <c r="A321" s="1">
-        <v>319</v>
-      </c>
-      <c r="B321">
-        <v>319</v>
-      </c>
-      <c r="C321">
-        <v>0.1809587</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3">
-      <c r="A322" s="1">
-        <v>320</v>
-      </c>
-      <c r="B322">
-        <v>320</v>
-      </c>
-      <c r="C322">
-        <v>0.1765876</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3">
-      <c r="A323" s="1">
-        <v>321</v>
-      </c>
-      <c r="B323">
-        <v>321</v>
-      </c>
-      <c r="C323">
-        <v>0.1723259</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3">
-      <c r="A324" s="1">
-        <v>322</v>
-      </c>
-      <c r="B324">
-        <v>322</v>
-      </c>
-      <c r="C324">
-        <v>0.1681788</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3">
-      <c r="A325" s="1">
-        <v>323</v>
-      </c>
-      <c r="B325">
-        <v>323</v>
-      </c>
-      <c r="C325">
-        <v>0.1641511</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3">
-      <c r="A326" s="1">
-        <v>324</v>
-      </c>
-      <c r="B326">
-        <v>324</v>
-      </c>
-      <c r="C326">
-        <v>0.1602468</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3">
-      <c r="A327" s="1">
-        <v>325</v>
-      </c>
-      <c r="B327">
-        <v>325</v>
-      </c>
-      <c r="C327">
-        <v>0.1564692</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
-      <c r="A328" s="1">
-        <v>326</v>
-      </c>
-      <c r="B328">
-        <v>326</v>
-      </c>
-      <c r="C328">
-        <v>0.1528209</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
-      <c r="A329" s="1">
-        <v>327</v>
-      </c>
-      <c r="B329">
-        <v>327</v>
-      </c>
-      <c r="C329">
-        <v>0.1493036</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3">
-      <c r="A330" s="1">
-        <v>328</v>
-      </c>
-      <c r="B330">
-        <v>328</v>
-      </c>
-      <c r="C330">
-        <v>0.1459188</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3">
-      <c r="A331" s="1">
-        <v>329</v>
-      </c>
-      <c r="B331">
-        <v>329</v>
-      </c>
-      <c r="C331">
-        <v>0.1426667</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3">
-      <c r="A332" s="1">
-        <v>330</v>
-      </c>
-      <c r="B332">
-        <v>330</v>
-      </c>
-      <c r="C332">
-        <v>0.1395475</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
-      <c r="A333" s="1">
-        <v>331</v>
-      </c>
-      <c r="B333">
-        <v>331</v>
-      </c>
-      <c r="C333">
-        <v>0.1365605</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3">
-      <c r="A334" s="1">
-        <v>332</v>
-      </c>
-      <c r="B334">
-        <v>332</v>
-      </c>
-      <c r="C334">
-        <v>0.1337044</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3">
-      <c r="A335" s="1">
-        <v>333</v>
-      </c>
-      <c r="B335">
-        <v>333</v>
-      </c>
-      <c r="C335">
-        <v>0.1309777</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3">
-      <c r="A336" s="1">
-        <v>334</v>
-      </c>
-      <c r="B336">
-        <v>334</v>
-      </c>
-      <c r="C336">
-        <v>0.1283781</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3">
-      <c r="A337" s="1">
-        <v>335</v>
-      </c>
-      <c r="B337">
-        <v>335</v>
-      </c>
-      <c r="C337">
-        <v>0.1259031</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3">
-      <c r="A338" s="1">
-        <v>336</v>
-      </c>
-      <c r="B338">
-        <v>336</v>
-      </c>
-      <c r="C338">
-        <v>0.12355</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3">
-      <c r="A339" s="1">
-        <v>337</v>
-      </c>
-      <c r="B339">
-        <v>337</v>
-      </c>
-      <c r="C339">
-        <v>0.1213156</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3">
-      <c r="A340" s="1">
-        <v>338</v>
-      </c>
-      <c r="B340">
-        <v>338</v>
-      </c>
-      <c r="C340">
-        <v>0.1191964</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3">
-      <c r="A341" s="1">
-        <v>339</v>
-      </c>
-      <c r="B341">
-        <v>339</v>
-      </c>
-      <c r="C341">
-        <v>0.117189</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3">
-      <c r="A342" s="1">
-        <v>340</v>
-      </c>
-      <c r="B342">
-        <v>340</v>
-      </c>
-      <c r="C342">
-        <v>0.1152894</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3">
-      <c r="A343" s="1">
-        <v>341</v>
-      </c>
-      <c r="B343">
-        <v>341</v>
-      </c>
-      <c r="C343">
-        <v>0.1134938</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3">
-      <c r="A344" s="1">
-        <v>342</v>
-      </c>
-      <c r="B344">
-        <v>342</v>
-      </c>
-      <c r="C344">
-        <v>0.1117983</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3">
-      <c r="A345" s="1">
-        <v>343</v>
-      </c>
-      <c r="B345">
-        <v>343</v>
-      </c>
-      <c r="C345">
-        <v>0.1101988</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3">
-      <c r="A346" s="1">
-        <v>344</v>
-      </c>
-      <c r="B346">
-        <v>344</v>
-      </c>
-      <c r="C346">
-        <v>0.1086913</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3">
-      <c r="A347" s="1">
-        <v>345</v>
-      </c>
-      <c r="B347">
-        <v>345</v>
-      </c>
-      <c r="C347">
-        <v>0.1072718</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
-      <c r="A348" s="1">
-        <v>346</v>
-      </c>
-      <c r="B348">
-        <v>346</v>
-      </c>
-      <c r="C348">
-        <v>0.1059361</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3">
-      <c r="A349" s="1">
-        <v>347</v>
-      </c>
-      <c r="B349">
-        <v>347</v>
-      </c>
-      <c r="C349">
-        <v>0.1046805</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3">
-      <c r="A350" s="1">
-        <v>348</v>
-      </c>
-      <c r="B350">
-        <v>348</v>
-      </c>
-      <c r="C350">
-        <v>0.1035009</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
-      <c r="A351" s="1">
-        <v>349</v>
-      </c>
-      <c r="B351">
-        <v>349</v>
-      </c>
-      <c r="C351">
-        <v>0.1023935</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3">
-      <c r="A352" s="1">
-        <v>350</v>
-      </c>
-      <c r="B352">
-        <v>350</v>
-      </c>
-      <c r="C352">
-        <v>0.1013547</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3">
-      <c r="A353" s="1">
-        <v>351</v>
-      </c>
-      <c r="B353">
-        <v>351</v>
-      </c>
-      <c r="C353">
-        <v>0.1003808</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3">
-      <c r="A354" s="1">
-        <v>352</v>
-      </c>
-      <c r="B354">
-        <v>352</v>
-      </c>
-      <c r="C354">
-        <v>0.0994684</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3">
-      <c r="A355" s="1">
-        <v>353</v>
-      </c>
-      <c r="B355">
-        <v>353</v>
-      </c>
-      <c r="C355">
-        <v>0.09861399999999999</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3">
-      <c r="A356" s="1">
-        <v>354</v>
-      </c>
-      <c r="B356">
-        <v>354</v>
-      </c>
-      <c r="C356">
-        <v>0.0978145</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3">
-      <c r="A357" s="1">
-        <v>355</v>
-      </c>
-      <c r="B357">
-        <v>355</v>
-      </c>
-      <c r="C357">
-        <v>0.09706670000000001</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3">
-      <c r="A358" s="1">
-        <v>356</v>
-      </c>
-      <c r="B358">
-        <v>356</v>
-      </c>
-      <c r="C358">
-        <v>0.0963676</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3">
-      <c r="A359" s="1">
-        <v>357</v>
-      </c>
-      <c r="B359">
-        <v>357</v>
-      </c>
-      <c r="C359">
-        <v>0.0957143</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3">
-      <c r="A360" s="1">
-        <v>358</v>
-      </c>
-      <c r="B360">
-        <v>358</v>
-      </c>
-      <c r="C360">
-        <v>0.0951042</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3">
-      <c r="A361" s="1">
-        <v>359</v>
-      </c>
-      <c r="B361">
-        <v>359</v>
-      </c>
-      <c r="C361">
-        <v>0.0945346</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3">
-      <c r="A362" s="1">
-        <v>360</v>
-      </c>
-      <c r="B362">
-        <v>360</v>
-      </c>
-      <c r="C362">
-        <v>0.09400310000000001</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3">
-      <c r="A363" s="1">
-        <v>361</v>
-      </c>
-      <c r="B363">
-        <v>361</v>
-      </c>
-      <c r="C363">
-        <v>0.0935074</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3">
-      <c r="A364" s="1">
-        <v>362</v>
-      </c>
-      <c r="B364">
-        <v>362</v>
-      </c>
-      <c r="C364">
-        <v>0.09304510000000001</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3">
-      <c r="A365" s="1">
-        <v>363</v>
-      </c>
-      <c r="B365">
-        <v>363</v>
-      </c>
-      <c r="C365">
-        <v>0.09261419999999999</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3">
-      <c r="A366" s="1">
-        <v>364</v>
-      </c>
-      <c r="B366">
-        <v>364</v>
-      </c>
-      <c r="C366">
-        <v>0.0922128</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3">
-      <c r="A367" s="1">
-        <v>365</v>
-      </c>
-      <c r="B367">
-        <v>365</v>
-      </c>
-      <c r="C367">
-        <v>0.0918389</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>